--- a/Exercício Fixação - Biblioteca Universitária.xlsx
+++ b/Exercício Fixação - Biblioteca Universitária.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2610E17B-347E-4F75-8173-57750542682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>QUANTIA</t>
   </si>
@@ -208,13 +212,43 @@
   </si>
   <si>
     <t xml:space="preserve">Manual Diagnóstico </t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>ENTIDADE</t>
+  </si>
+  <si>
+    <t>ATRIBUTOS</t>
+  </si>
+  <si>
+    <t>Relacionamento</t>
+  </si>
+  <si>
+    <t>USUÁRIOS</t>
+  </si>
+  <si>
+    <t>DADOS</t>
+  </si>
+  <si>
+    <t>OBRAS</t>
+  </si>
+  <si>
+    <t>ILIMITADO</t>
+  </si>
+  <si>
+    <t>INFORMAÇÕES</t>
+  </si>
+  <si>
+    <t>POSSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,16 +361,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B34594A-8955-4024-B39A-7A1F7A3936AF}" name="Tabela1" displayName="Tabela1" ref="A3:G13" totalsRowShown="0">
-  <autoFilter ref="A3:G13" xr:uid="{3B34594A-8955-4024-B39A-7A1F7A3936AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A3:G13" totalsRowShown="0">
+  <autoFilter ref="A3:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{006AE2F7-8158-4CB7-920D-2D49E898C23F}" name="QUANTIA" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C296F0AF-E7C9-4158-A5CD-3DA02D0393BB}" name="NOME" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{74F3164B-2B4E-4426-9CFD-7A15599C9FA8}" name="ENDEREÇO"/>
-    <tableColumn id="4" xr3:uid="{B5AF393D-A728-4131-A8F5-19A0A9D87070}" name="TELEFONE" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B69177CB-8A80-4D70-B303-77B27209EE2C}" name="CURSO" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{FF47576D-8847-4E32-BEA1-19A3740929BC}" name="EMPRÉSTIMO " dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{DC97FB73-DAD0-47E5-8D14-A5B8109536BF}" name="LIMITE DE LIVROS" dataDxfId="0"/>
+    <tableColumn id="1" name="QUANTIA" dataDxfId="5"/>
+    <tableColumn id="2" name="NOME" dataDxfId="4"/>
+    <tableColumn id="3" name="ENDEREÇO"/>
+    <tableColumn id="4" name="TELEFONE" dataDxfId="3"/>
+    <tableColumn id="5" name="CURSO" dataDxfId="2"/>
+    <tableColumn id="6" name="EMPRÉSTIMO " dataDxfId="1"/>
+    <tableColumn id="7" name="LIMITE DE LIVROS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A14:B21" totalsRowShown="0">
+  <autoFilter ref="A14:B21"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ENTIDADE"/>
+    <tableColumn id="2" name="ATRIBUTOS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="C14:C22" totalsRowShown="0">
+  <autoFilter ref="C14:C22"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Coluna1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="E14:F21" totalsRowShown="0">
+  <autoFilter ref="E14:F21"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ENTIDADE"/>
+    <tableColumn id="2" name="ATRIBUTOS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="G14:G22" totalsRowShown="0">
+  <autoFilter ref="G14:G22"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Coluna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,16 +714,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -656,7 +732,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -679,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -702,7 +778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -725,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -748,7 +824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -771,7 +847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -794,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -817,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -840,7 +916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -863,7 +939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -886,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -909,10 +985,73 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>